--- a/data/IPC CA RD Y MEX.xlsx
+++ b/data/IPC CA RD Y MEX.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cycastañeda\OneDrive - ine.gob.gt\Documentos\GitHub\INE_docker_ipc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84404D49-8B1B-4038-A762-E4F6B21E4A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guatemala" sheetId="1" r:id="rId1"/>
@@ -16,17 +22,28 @@
     <sheet name="Panamá" sheetId="7" r:id="rId7"/>
     <sheet name="México" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="17">
   <si>
     <t>indice</t>
   </si>
@@ -73,14 +90,17 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>N/D</t>
+    <t>octubre</t>
+  </si>
+  <si>
+    <t>noviembre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +145,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -193,11 +206,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,23 +513,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,9 +540,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>138.97999999999999</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>79.72</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -539,9 +551,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>139.16999999999999</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>79.83</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -550,9 +562,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>139.11000000000001</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>79.8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -561,9 +573,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>139.94999999999999</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>80.27</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -572,9 +584,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>140.32</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>80.489999999999995</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -583,9 +595,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>141.47999999999999</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>81.150000000000006</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -594,9 +606,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>141.4</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>81.11</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -605,9 +617,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>140.18</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80.41</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -616,9 +628,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>139.36000000000001</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>79.94</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -627,9 +639,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>140.33000000000001</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>80.5</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -638,9 +650,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>140.94999999999999</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>80.849999999999994</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -649,9 +661,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>141.80000000000001</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>81.34</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -660,9 +672,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>141.46</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>81.14</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -671,9 +683,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>140.88999999999999</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>80.81</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -682,9 +694,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>141.57</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>81.2</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -693,9 +705,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>142.58000000000001</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>81.78</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -704,9 +716,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>142.85</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>81.94</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -715,9 +727,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>144.86000000000001</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>83.09</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -726,9 +738,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>145.47</v>
+        <v>83.44</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -737,9 +749,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>146.05000000000001</v>
+        <v>83.77</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -748,9 +760,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>146.28</v>
+        <v>83.9</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -759,9 +771,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>147.83000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -770,9 +782,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>148.65</v>
+        <v>85.26</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -781,9 +793,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>148.63999999999999</v>
+        <v>85.26</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -792,9 +804,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>148.87</v>
+        <v>85.4</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -803,9 +815,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>149.34</v>
+        <v>85.66</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -814,9 +826,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>149.84</v>
+        <v>85.95</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -825,9 +837,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>150</v>
+        <v>86.04</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -836,9 +848,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>150.24</v>
+        <v>86.18</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -847,9 +859,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>150.52000000000001</v>
+        <v>86.34</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -858,9 +870,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>151.02000000000001</v>
+        <v>86.62</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -869,9 +881,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>151.33000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -882,7 +894,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>151.65</v>
+        <v>86.99</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -893,7 +905,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>152.19999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -904,7 +916,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>152.94</v>
+        <v>87.73</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -915,7 +927,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>153.19999999999999</v>
+        <v>87.87</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -926,7 +938,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>153.13999999999999</v>
+        <v>87.84</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -937,7 +949,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>153.79</v>
+        <v>88.21</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -948,7 +960,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>156.09</v>
+        <v>89.531949065045296</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -959,7 +971,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>156.93</v>
+        <v>90.01</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -970,7 +982,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>158.97999999999999</v>
+        <v>91.19</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -981,7 +993,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>161.88999999999999</v>
+        <v>92.86</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -992,7 +1004,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>163.63999999999999</v>
+        <v>93.86</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -1003,7 +1015,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>164.76</v>
+        <v>94.5</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1014,7 +1026,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>165.35</v>
+        <v>94.84</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -1025,7 +1037,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>166.97</v>
+        <v>95.77</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -1036,7 +1048,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>166.96</v>
+        <v>95.77</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -1047,7 +1059,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>167.35</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -1058,7 +1070,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>167.98</v>
+        <v>99.35</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1069,7 +1081,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>169.05</v>
+        <v>96.97</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1080,7 +1092,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>169.69</v>
+        <v>97.33</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>5</v>
@@ -1091,7 +1103,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>169.98</v>
+        <v>97.5</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1102,7 +1114,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>169.37</v>
+        <v>97.15</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1113,7 +1125,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>169.87</v>
+        <v>97.44</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -1124,7 +1136,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>171.06</v>
+        <v>98.12</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -1135,7 +1147,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>172.24</v>
+        <v>98.73</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -1143,6 +1155,218 @@
       <c r="C57">
         <v>2023</v>
       </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>99.29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>100.54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>99.89</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>98.830598771046596</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>98.856695978958101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>98.994617044461094</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>99.300106378486305</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>99.594133215471601</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>99.622504993395694</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>99.781554698869499</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>100.63825983786801</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>100.575543385682</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>100.196314506457</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>100.52599686060999</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>100.355601844182</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>100.513540673813</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>101.02</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>100.77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>100.862479384954</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1152,16 +1376,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A50" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>112.24</v>
       </c>
@@ -1183,7 +1407,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>112.44</v>
       </c>
@@ -1194,7 +1418,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>112.69</v>
       </c>
@@ -1205,7 +1429,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>112.87</v>
       </c>
@@ -1216,7 +1440,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>113.01</v>
       </c>
@@ -1227,7 +1451,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>112.85</v>
       </c>
@@ -1238,7 +1462,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>112.56</v>
       </c>
@@ -1249,7 +1473,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>112.16</v>
       </c>
@@ -1260,7 +1484,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>111.99</v>
       </c>
@@ -1271,7 +1495,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>112.04</v>
       </c>
@@ -1282,7 +1506,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>112.17</v>
       </c>
@@ -1293,7 +1517,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>112.29</v>
       </c>
@@ -1304,7 +1528,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>112.15</v>
       </c>
@@ -1315,7 +1539,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>112</v>
       </c>
@@ -1326,7 +1550,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>112.09</v>
       </c>
@@ -1337,7 +1561,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>111.69</v>
       </c>
@@ -1348,7 +1572,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>111.94</v>
       </c>
@@ -1359,7 +1583,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>112.59</v>
       </c>
@@ -1370,7 +1594,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>112.49</v>
       </c>
@@ -1381,7 +1605,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>111.82</v>
       </c>
@@ -1392,7 +1616,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>111.56</v>
       </c>
@@ -1403,7 +1627,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>111.81</v>
       </c>
@@ -1414,7 +1638,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>111.98</v>
       </c>
@@ -1425,7 +1649,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>112.2</v>
       </c>
@@ -1436,7 +1660,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>112.49</v>
       </c>
@@ -1447,7 +1671,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>113.19</v>
       </c>
@@ -1458,7 +1682,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>114.08</v>
       </c>
@@ -1469,7 +1693,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>114.81</v>
       </c>
@@ -1480,7 +1704,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>114.84</v>
       </c>
@@ -1491,7 +1715,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>115.51</v>
       </c>
@@ -1502,7 +1726,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>116.36</v>
       </c>
@@ -1513,7 +1737,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>116.63</v>
       </c>
@@ -1524,7 +1748,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>117.1</v>
       </c>
@@ -1535,7 +1759,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>117.95</v>
       </c>
@@ -1546,7 +1770,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>118.92</v>
       </c>
@@ -1557,7 +1781,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>119.06</v>
       </c>
@@ -1568,7 +1792,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>119.79</v>
       </c>
@@ -1579,7 +1803,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>120.73</v>
       </c>
@@ -1590,7 +1814,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>121.71</v>
       </c>
@@ -1601,7 +1825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>122.32</v>
       </c>
@@ -1612,7 +1836,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>123.43</v>
       </c>
@@ -1623,7 +1847,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>124.47</v>
       </c>
@@ -1634,7 +1858,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>124.99</v>
       </c>
@@ -1645,7 +1869,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>125.56</v>
       </c>
@@ -1656,7 +1880,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>125.87</v>
       </c>
@@ -1667,7 +1891,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>126.76</v>
       </c>
@@ -1678,7 +1902,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>127.63</v>
       </c>
@@ -1689,7 +1913,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>127.77</v>
       </c>
@@ -1700,7 +1924,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>128.21</v>
       </c>
@@ -1711,7 +1935,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>128.97</v>
       </c>
@@ -1722,7 +1946,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>129.08000000000001</v>
       </c>
@@ -1733,7 +1957,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>128.97</v>
       </c>
@@ -1744,7 +1968,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>128.88</v>
       </c>
@@ -1755,7 +1979,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>129.18</v>
       </c>
@@ -1766,7 +1990,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>129.16999999999999</v>
       </c>
@@ -1777,7 +2001,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>129.44</v>
       </c>
@@ -1788,9 +2012,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>15</v>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>129.66999999999999</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -1799,17 +2023,217 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>130.13999999999999</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>130.32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>129.34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>2023</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>129.76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>130.08000000000001</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>130.44999999999999</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>130.71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>131.09</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>131.47</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>130.96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>130.41999999999999</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>130.04</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>129.93</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>129.71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>130.16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>130.08000000000001</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>130.26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A65" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,7 +2241,7 @@
     <col min="1" max="1" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +2252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>323.3</v>
       </c>
@@ -1839,7 +2263,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>325.8</v>
       </c>
@@ -1850,7 +2274,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>327.10000000000002</v>
       </c>
@@ -1861,7 +2285,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>330.1</v>
       </c>
@@ -1872,7 +2296,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>331.3</v>
       </c>
@@ -1883,7 +2307,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>331.6</v>
       </c>
@@ -1894,7 +2318,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>332.5</v>
       </c>
@@ -1905,7 +2329,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>332.7</v>
       </c>
@@ -1916,7 +2340,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>333.2</v>
       </c>
@@ -1927,7 +2351,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>334</v>
       </c>
@@ -1938,7 +2362,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>335</v>
       </c>
@@ -1949,7 +2373,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>336.4</v>
       </c>
@@ -1960,7 +2384,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>337.2</v>
       </c>
@@ -1971,7 +2395,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>338.8</v>
       </c>
@@ -1982,7 +2406,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>339.8</v>
       </c>
@@ -1993,7 +2417,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>341.1</v>
       </c>
@@ -2004,7 +2428,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>338.9</v>
       </c>
@@ -2015,7 +2439,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>340.4</v>
       </c>
@@ -2026,7 +2450,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>342.8</v>
       </c>
@@ -2037,7 +2461,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>343.4</v>
       </c>
@@ -2048,7 +2472,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>344.5</v>
       </c>
@@ -2059,7 +2483,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>346.2</v>
       </c>
@@ -2070,7 +2494,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>347.8</v>
       </c>
@@ -2081,7 +2505,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>349.9</v>
       </c>
@@ -2092,7 +2516,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>351.3</v>
       </c>
@@ -2103,7 +2527,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>351.9</v>
       </c>
@@ -2114,7 +2538,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>353.2</v>
       </c>
@@ -2125,7 +2549,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>354.6</v>
       </c>
@@ -2136,7 +2560,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>355.3</v>
       </c>
@@ -2147,7 +2571,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>356.3</v>
       </c>
@@ -2158,7 +2582,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>357.4</v>
       </c>
@@ -2169,7 +2593,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>358.8</v>
       </c>
@@ -2180,7 +2604,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>360.4</v>
       </c>
@@ -2191,7 +2615,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>362.3</v>
       </c>
@@ -2202,7 +2626,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>365</v>
       </c>
@@ -2213,7 +2637,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>368.5</v>
       </c>
@@ -2224,7 +2648,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>373</v>
       </c>
@@ -2235,7 +2659,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>374.3</v>
       </c>
@@ -2246,7 +2670,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>377.8</v>
       </c>
@@ -2257,7 +2681,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>384.2</v>
       </c>
@@ -2268,7 +2692,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>387.6</v>
       </c>
@@ -2279,7 +2703,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>392.7</v>
       </c>
@@ -2290,7 +2714,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>396.2</v>
       </c>
@@ -2301,7 +2725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>396.1</v>
       </c>
@@ -2312,7 +2736,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>396.6</v>
       </c>
@@ -2323,7 +2747,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>399.2</v>
       </c>
@@ -2334,7 +2758,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>403.1</v>
       </c>
@@ -2345,7 +2769,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>404.6</v>
       </c>
@@ -2356,7 +2780,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>406.3</v>
       </c>
@@ -2367,7 +2791,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>411</v>
       </c>
@@ -2455,22 +2879,224 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>422.5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>423.4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>425.6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>426.6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>429.5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>431.6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>432.8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>433.5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>434.9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>437.7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>439.6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>439.8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>439.6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>440.1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>442.1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>444.8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>449.9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>451</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A65" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>218.6</v>
       </c>
@@ -2492,7 +3118,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>219.2</v>
       </c>
@@ -2503,7 +3129,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>223.19</v>
       </c>
@@ -2514,7 +3140,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>225.34</v>
       </c>
@@ -2525,7 +3151,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>227.06</v>
       </c>
@@ -2536,7 +3162,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>227.26</v>
       </c>
@@ -2547,7 +3173,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>228.05</v>
       </c>
@@ -2558,7 +3184,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>227.98</v>
       </c>
@@ -2569,7 +3195,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>227.67</v>
       </c>
@@ -2580,7 +3206,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>228.44</v>
       </c>
@@ -2591,7 +3217,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>230.24</v>
       </c>
@@ -2602,7 +3228,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>232.59</v>
       </c>
@@ -2613,7 +3239,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>232.63</v>
       </c>
@@ -2624,7 +3250,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>233.26</v>
       </c>
@@ -2635,7 +3261,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>233.05</v>
       </c>
@@ -2646,7 +3272,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>232.65</v>
       </c>
@@ -2657,7 +3283,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>233.62</v>
       </c>
@@ -2668,7 +3294,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>235.49</v>
       </c>
@@ -2679,7 +3305,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>235.91</v>
       </c>
@@ -2690,7 +3316,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>234.53</v>
       </c>
@@ -2701,7 +3327,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>234.06</v>
       </c>
@@ -2712,7 +3338,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>234.58</v>
       </c>
@@ -2723,7 +3349,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>236.33</v>
       </c>
@@ -2734,7 +3360,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>239.4</v>
       </c>
@@ -2745,7 +3371,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>240.03</v>
       </c>
@@ -2756,7 +3382,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>242.06</v>
       </c>
@@ -2767,7 +3393,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>242.63</v>
       </c>
@@ -2778,7 +3404,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>242.89</v>
       </c>
@@ -2789,7 +3415,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>243.01</v>
       </c>
@@ -2800,7 +3426,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>244.77</v>
       </c>
@@ -2811,7 +3437,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>245.62</v>
       </c>
@@ -2822,7 +3448,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>246.21</v>
       </c>
@@ -2833,7 +3459,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>247.77</v>
       </c>
@@ -2844,7 +3470,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>249.62</v>
       </c>
@@ -2855,7 +3481,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>253.1</v>
       </c>
@@ -2866,7 +3492,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>256.66000000000003</v>
       </c>
@@ -2877,7 +3503,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>258.47000000000003</v>
       </c>
@@ -2888,7 +3514,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>260.33</v>
       </c>
@@ -2899,7 +3525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>263.83999999999997</v>
       </c>
@@ -2910,7 +3536,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>267.05</v>
       </c>
@@ -2921,7 +3547,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>268.79000000000002</v>
       </c>
@@ -2932,7 +3558,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>270.14999999999998</v>
       </c>
@@ -2943,7 +3569,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>273.76</v>
       </c>
@@ -2954,7 +3580,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>276.12</v>
       </c>
@@ -2965,7 +3591,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>276.31</v>
       </c>
@@ -2976,7 +3602,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>280</v>
       </c>
@@ -2987,7 +3613,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>281.89999999999998</v>
       </c>
@@ -3011,7 +3637,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>286.7</v>
+        <v>286.70291099999997</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -3022,7 +3648,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>289.79000000000002</v>
+        <v>289.788027</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>4</v>
@@ -3033,7 +3659,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>291.2</v>
+        <v>291.24409399999996</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -3044,7 +3670,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>292.52</v>
+        <v>292.51535999999999</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -3054,8 +3680,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>294.24</v>
+      <c r="A54" s="5">
+        <v>294.24477200000001</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -3065,8 +3691,8 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>296.82</v>
+      <c r="A55" s="2">
+        <v>296.82079699999997</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -3077,7 +3703,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>296.10000000000002</v>
+        <v>296.134793</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -3088,7 +3714,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>296.7</v>
+        <v>296.71436699999998</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -3098,8 +3724,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>15</v>
+      <c r="A58" s="2">
+        <v>296.12500999999997</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -3108,22 +3734,221 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>296.78847500000001</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>297.80682200000001</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>302.46986599999997</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>303.30210699999998</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>304.08391799999998</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>307.08193899999998</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>308.41022099999998</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>310.26851799999997</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>311.12126899999998</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>311.61611899999997</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>310.135582</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>307.56744800000001</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>307.49273399999998</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>308.872454</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>311.04830499999997</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>311.57890099999997</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>314.57817999999997</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>313.63932199999999</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A65" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +3959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>97.679211870000003</v>
       </c>
@@ -3145,7 +3970,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>97.759031789999995</v>
       </c>
@@ -3156,7 +3981,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>97.617418020000002</v>
       </c>
@@ -3167,7 +3992,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>98.165424299999998</v>
       </c>
@@ -3178,7 +4003,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>98.298055500000004</v>
       </c>
@@ -3189,7 +4014,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>98.568195180000004</v>
       </c>
@@ -3200,7 +4025,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>99.291642809999999</v>
       </c>
@@ -3211,7 +4036,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>99.193890580000001</v>
       </c>
@@ -3222,7 +4047,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>99.097494049999995</v>
       </c>
@@ -3233,7 +4058,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>99.024797930000005</v>
       </c>
@@ -3244,7 +4069,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>99.231689320000001</v>
       </c>
@@ -3255,7 +4080,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>99.115445679999993</v>
       </c>
@@ -3266,7 +4091,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>99.225243599999999</v>
       </c>
@@ -3277,7 +4102,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>99.508993009999998</v>
       </c>
@@ -3288,7 +4113,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>99.478912469999997</v>
       </c>
@@ -3299,7 +4124,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>99.040237869999999</v>
       </c>
@@ -3310,7 +4135,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>98.896445709999995</v>
       </c>
@@ -3321,7 +4146,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>98.875348310000007</v>
       </c>
@@ -3332,7 +4157,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>99.127692339999996</v>
       </c>
@@ -3343,7 +4168,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>99.123686579999998</v>
       </c>
@@ -3354,7 +4179,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>99.393758820000002</v>
       </c>
@@ -3365,7 +4190,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>99.472841919999993</v>
       </c>
@@ -3376,7 +4201,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>99.474323560000002</v>
       </c>
@@ -3387,7 +4212,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>100</v>
       </c>
@@ -3398,7 +4223,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>100.18</v>
       </c>
@@ -3409,7 +4234,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>99.921244529999996</v>
       </c>
@@ -3420,7 +4245,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>99.949181179999997</v>
       </c>
@@ -3431,7 +4256,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>100.2384619</v>
       </c>
@@ -3442,7 +4267,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>100.22344409999999</v>
       </c>
@@ -3453,7 +4278,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>100.7619232</v>
       </c>
@@ -3464,7 +4289,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>100.5549128</v>
       </c>
@@ -3475,7 +4300,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>100.8332302</v>
       </c>
@@ -3486,7 +4311,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>101.4674681</v>
       </c>
@@ -3497,7 +4322,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>101.96356230000001</v>
       </c>
@@ -3508,7 +4333,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>102.80237959999999</v>
       </c>
@@ -3519,7 +4344,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>103.2989079</v>
       </c>
@@ -3530,7 +4355,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>103.6812099</v>
       </c>
@@ -3541,7 +4366,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>104.8147022</v>
       </c>
@@ -3552,7 +4377,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>105.7394122</v>
       </c>
@@ -3563,7 +4388,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>107.40707740000001</v>
       </c>
@@ -3574,7 +4399,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>108.97</v>
       </c>
@@ -3585,7 +4410,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>110.89</v>
       </c>
@@ -3596,7 +4421,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>112.1</v>
       </c>
@@ -3607,7 +4432,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>113.06</v>
       </c>
@@ -3618,7 +4443,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>111.98</v>
       </c>
@@ -3751,8 +4576,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>15</v>
+      <c r="A58">
+        <v>109.48</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -3761,23 +4586,222 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>109.71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>109.45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>109.46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>109.52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>109.41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>109.1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>109.46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>109.55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>109.7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>109.57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>109.69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>109.33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>108.85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>109.35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>110.39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>110.78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>110.77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>110.42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A65" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3788,7 +4812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>95.250891820000007</v>
       </c>
@@ -3799,7 +4823,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>95.604163560000003</v>
       </c>
@@ -3810,7 +4834,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>96.229748920000006</v>
       </c>
@@ -3821,7 +4845,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>96.737577040000005</v>
       </c>
@@ -3832,7 +4856,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>96.708137730000004</v>
       </c>
@@ -3843,7 +4867,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>96.53150187</v>
       </c>
@@ -3854,7 +4878,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>96.980451360000004</v>
       </c>
@@ -3865,7 +4889,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>97.311643619999998</v>
       </c>
@@ -3876,7 +4900,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>97.679635009999998</v>
       </c>
@@ -3887,7 +4911,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>98.334659680000001</v>
       </c>
@@ -3898,7 +4922,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>98.702651079999995</v>
       </c>
@@ -3909,7 +4933,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>98.901366429999996</v>
       </c>
@@ -3920,7 +4944,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>99.225198849999998</v>
       </c>
@@ -3931,7 +4955,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>99.100081779999996</v>
       </c>
@@ -3942,7 +4966,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>98.584893829999999</v>
       </c>
@@ -3953,7 +4977,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>97.775312769999999</v>
       </c>
@@ -3964,7 +4988,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>97.664915350000001</v>
       </c>
@@ -3975,7 +4999,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>99.328236439999998</v>
       </c>
@@ -3986,7 +5010,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>101.1976327</v>
       </c>
@@ -3997,7 +5021,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>101.9851343</v>
       </c>
@@ -4008,7 +5032,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>102.596</v>
       </c>
@@ -4019,7 +5043,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>103.276</v>
       </c>
@@ -4030,7 +5054,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>103.893</v>
       </c>
@@ -4041,7 +5065,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>104.39400000000001</v>
       </c>
@@ -4052,7 +5076,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>105.404</v>
       </c>
@@ -4063,7 +5087,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>106.124</v>
       </c>
@@ -4074,7 +5098,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>106.764</v>
       </c>
@@ -4085,7 +5109,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>107.206</v>
       </c>
@@ -4096,7 +5120,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>107.901</v>
       </c>
@@ -4107,7 +5131,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>108.58499999999999</v>
       </c>
@@ -4118,7 +5142,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>109.16800000000001</v>
       </c>
@@ -4129,7 +5153,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>110.039</v>
       </c>
@@ -4140,7 +5164,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>110.535</v>
       </c>
@@ -4151,7 +5175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>111.244</v>
       </c>
@@ -4162,7 +5186,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>112.446</v>
       </c>
@@ -4173,7 +5197,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>113.26300000000001</v>
       </c>
@@ -4184,7 +5208,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>114.602</v>
       </c>
@@ -4195,7 +5219,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>115.658</v>
       </c>
@@ -4206,7 +5230,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>116.431</v>
       </c>
@@ -4217,7 +5241,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>117.544</v>
       </c>
@@ -4228,7 +5252,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>118.122</v>
       </c>
@@ -4239,7 +5263,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>118.877</v>
       </c>
@@ -4250,7 +5274,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>119.468</v>
       </c>
@@ -4261,7 +5285,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>119.718</v>
       </c>
@@ -4272,7 +5296,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>120.07</v>
       </c>
@@ -4405,8 +5429,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>15</v>
+      <c r="A58">
+        <v>125.37</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -4415,23 +5439,222 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>125.64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>125.81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>126.49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>126.98</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>127.09</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>127.47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>127.35</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>127.3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>127.91</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>129.1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>129.49</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>129.61000000000001</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>129.81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>130.72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>131.2004</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>131.62440000000001</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>132.03729999999999</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A68" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4442,7 +5665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>104.3818788</v>
       </c>
@@ -4453,7 +5676,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>104.47547969999999</v>
       </c>
@@ -4464,7 +5687,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>104.9075837</v>
       </c>
@@ -4475,7 +5698,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>105.20208649999999</v>
       </c>
@@ -4486,7 +5709,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>105.29618739999999</v>
       </c>
@@ -4497,7 +5720,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>104.9474841</v>
       </c>
@@ -4508,7 +5731,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>105.17908629999999</v>
       </c>
@@ -4519,7 +5742,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>104.8893836</v>
       </c>
@@ -4530,7 +5753,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>104.8395831</v>
       </c>
@@ -4541,7 +5764,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>104.7846826</v>
       </c>
@@ -4552,7 +5775,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>104.7690824</v>
       </c>
@@ -4563,7 +5786,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>104.6009808</v>
       </c>
@@ -4574,7 +5797,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>104.7532823</v>
       </c>
@@ -4585,7 +5808,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>104.49057980000001</v>
       </c>
@@ -4596,7 +5819,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>104.0266755</v>
       </c>
@@ -4607,7 +5830,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>102.7049631</v>
       </c>
@@ -4618,7 +5841,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>102.69636300000001</v>
       </c>
@@ -4629,7 +5852,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>103.23016800000001</v>
       </c>
@@ -4640,7 +5863,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>102.8125641</v>
       </c>
@@ -4651,7 +5874,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>102.8296642</v>
       </c>
@@ -4662,7 +5885,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>102.8910648</v>
       </c>
@@ -4673,7 +5896,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>102.74256339999999</v>
       </c>
@@ -4684,7 +5907,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>102.63536240000001</v>
       </c>
@@ -4695,7 +5918,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>102.9521654</v>
       </c>
@@ -4706,7 +5929,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>104.0266755</v>
       </c>
@@ -4717,7 +5940,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>103.8786741</v>
       </c>
@@ -4728,7 +5951,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>104.3266783</v>
       </c>
@@ -4739,7 +5962,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>104.4563795</v>
       </c>
@@ -4750,7 +5973,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>104.6722815</v>
       </c>
@@ -4761,7 +5984,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>104.8612833</v>
       </c>
@@ -4772,7 +5995,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>105.251687</v>
       </c>
@@ -4783,7 +6006,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>105.2900873</v>
       </c>
@@ -4794,7 +6017,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>105.44888880000001</v>
       </c>
@@ -4805,7 +6028,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>105.7662918</v>
       </c>
@@ -4816,7 +6039,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>106.0843948</v>
       </c>
@@ -4827,7 +6050,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>105.65399069999999</v>
       </c>
@@ -4838,7 +6061,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>105.98759389999999</v>
       </c>
@@ -4849,7 +6072,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>106.7203007</v>
       </c>
@@ -4860,7 +6083,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>107.64890939999999</v>
       </c>
@@ -4871,7 +6094,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>108.2695152</v>
       </c>
@@ -4882,7 +6105,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>109.08952290000001</v>
       </c>
@@ -4893,7 +6116,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>110.3</v>
       </c>
@@ -4904,7 +6127,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>108.9</v>
       </c>
@@ -4915,7 +6138,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>107.5</v>
       </c>
@@ -4926,7 +6149,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>107.5</v>
       </c>
@@ -4937,7 +6160,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>107.5</v>
       </c>
@@ -4948,7 +6171,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>107.7</v>
       </c>
@@ -5059,8 +6282,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>15</v>
+      <c r="A58" s="2">
+        <v>110</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -5069,22 +6292,222 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>109.8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>109.8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>109.9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>110.2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>110.6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>111</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>111.1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>110.9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>110.6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>110.4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>110.2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>109.7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>109.45</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>109.51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>109.7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>110</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>110.41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>110.5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5095,7 +6518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>103.108</v>
       </c>
@@ -5106,7 +6529,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>103.07899999999999</v>
       </c>
@@ -5117,7 +6540,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>103.476</v>
       </c>
@@ -5128,7 +6551,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>103.53100000000001</v>
       </c>
@@ -5139,7 +6562,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>103.233</v>
       </c>
@@ -5150,7 +6573,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>103.29900000000001</v>
       </c>
@@ -5162,7 +6585,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>103.687</v>
       </c>
@@ -5173,7 +6596,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>103.67</v>
       </c>
@@ -5184,7 +6607,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>103.94199999999999</v>
       </c>
@@ -5195,7 +6618,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>104.503</v>
       </c>
@@ -5206,7 +6629,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>105.346</v>
       </c>
@@ -5217,7 +6640,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>105.934</v>
       </c>
@@ -5228,7 +6651,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>106.447</v>
       </c>
@@ -5239,7 +6662,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>106.889</v>
       </c>
@@ -5250,7 +6673,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>106.83799999999999</v>
       </c>
@@ -5261,7 +6684,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>105.755</v>
       </c>
@@ -5272,7 +6695,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>106.16200000000001</v>
       </c>
@@ -5283,7 +6706,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>106.74299999999999</v>
       </c>
@@ -5294,7 +6717,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>107.444</v>
       </c>
@@ -5305,7 +6728,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>107.867</v>
       </c>
@@ -5316,7 +6739,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>108.114</v>
       </c>
@@ -5327,7 +6750,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>108.774</v>
       </c>
@@ -5338,7 +6761,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>108.85599999999999</v>
       </c>
@@ -5349,7 +6772,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>109.271</v>
       </c>
@@ -5360,7 +6783,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>110.21</v>
       </c>
@@ -5371,7 +6794,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>110.907</v>
       </c>
@@ -5382,7 +6805,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>111.824</v>
       </c>
@@ -5393,7 +6816,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>112.19</v>
       </c>
@@ -5404,7 +6827,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>112.419</v>
       </c>
@@ -5415,7 +6838,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>113.018</v>
       </c>
@@ -5426,7 +6849,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>113.682</v>
       </c>
@@ -5437,7 +6860,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>113.899</v>
       </c>
@@ -5448,7 +6871,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>114.601</v>
       </c>
@@ -5459,7 +6882,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>115.56100000000001</v>
       </c>
@@ -5470,7 +6893,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>116.884</v>
       </c>
@@ -5481,7 +6904,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>117.30800000000001</v>
       </c>
@@ -5492,7 +6915,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>118.002</v>
       </c>
@@ -5503,7 +6926,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>118.98099999999999</v>
       </c>
@@ -5514,7 +6937,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>120.15900000000001</v>
       </c>
@@ -5525,7 +6948,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>120.809</v>
       </c>
@@ -5536,7 +6959,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>121.02200000000001</v>
       </c>
@@ -5547,7 +6970,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>122.044</v>
       </c>
@@ -5558,7 +6981,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>122.95</v>
       </c>
@@ -5569,7 +6992,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>123.8</v>
       </c>
@@ -5580,7 +7003,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>124.57</v>
       </c>
@@ -5591,7 +7014,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>125.3</v>
       </c>
@@ -5602,7 +7025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>126</v>
       </c>
@@ -5713,8 +7136,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>15</v>
+      <c r="A58" s="2">
+        <v>130.1</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -5723,7 +7146,209 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>130.6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>131.4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>132.4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>133.55500000000001</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>133.68100000000001</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>134.065</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>134.33600000000001</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>134.08699999999999</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>134.59399999999999</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>136.00299999999999</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>136.01300000000001</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>136.08000000000001</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>136.828</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>137.42400000000001</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>137.94999999999999</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>138.34299999999999</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>138.726</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>139.161</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
